--- a/Lesly_Resources/oldFederalMinimumWageIncreases_1968-2019.xlsx
+++ b/Lesly_Resources/oldFederalMinimumWageIncreases_1968-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesly\OneDrive\Desktop\Project\ProjectOne\Lesly_Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A014E820-AD54-4E6D-B4C3-0E4A3A95BDF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF27F9CC-90F2-44A7-9826-4D0405FBD190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19380" yWindow="900" windowWidth="19155" windowHeight="11070" xr2:uid="{B2C0A8B3-3991-44C8-BA1C-6CC1EDF4711D}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{B2C0A8B3-3991-44C8-BA1C-6CC1EDF4711D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -93,18 +93,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -425,7 +428,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +449,7 @@
       <c r="A2" s="1">
         <v>1968</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>1.6</v>
       </c>
     </row>
@@ -454,7 +457,7 @@
       <c r="A3" s="1">
         <v>1969</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>1.6</v>
       </c>
     </row>
@@ -462,7 +465,7 @@
       <c r="A4" s="1">
         <v>1970</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>1.6</v>
       </c>
     </row>
@@ -470,7 +473,7 @@
       <c r="A5" s="1">
         <v>1971</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>1.6</v>
       </c>
     </row>
@@ -478,7 +481,7 @@
       <c r="A6" s="1">
         <v>1972</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>1.6</v>
       </c>
     </row>
@@ -486,7 +489,7 @@
       <c r="A7" s="1">
         <v>1973</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>1.6</v>
       </c>
     </row>
@@ -494,7 +497,7 @@
       <c r="A8" s="1">
         <v>1974</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
     </row>
@@ -502,7 +505,7 @@
       <c r="A9" s="1">
         <v>1975</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>2.1</v>
       </c>
     </row>
@@ -510,7 +513,7 @@
       <c r="A10" s="1">
         <v>1976</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -518,7 +521,7 @@
       <c r="A11" s="1">
         <v>1977</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -526,7 +529,7 @@
       <c r="A12" s="1">
         <v>1978</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>2.65</v>
       </c>
     </row>
@@ -534,7 +537,7 @@
       <c r="A13" s="1">
         <v>1979</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>2.9</v>
       </c>
     </row>
@@ -542,7 +545,7 @@
       <c r="A14" s="1">
         <v>1980</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>3.1</v>
       </c>
     </row>
@@ -550,7 +553,7 @@
       <c r="A15" s="1">
         <v>1981</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>3.35</v>
       </c>
     </row>
@@ -558,7 +561,7 @@
       <c r="A16" s="1">
         <v>1982</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>3.35</v>
       </c>
     </row>
@@ -566,7 +569,7 @@
       <c r="A17" s="1">
         <v>1983</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>3.35</v>
       </c>
     </row>
@@ -574,7 +577,7 @@
       <c r="A18" s="1">
         <v>1984</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>3.35</v>
       </c>
     </row>
@@ -582,7 +585,7 @@
       <c r="A19" s="1">
         <v>1985</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>3.35</v>
       </c>
     </row>
@@ -590,7 +593,7 @@
       <c r="A20" s="1">
         <v>1986</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>3.35</v>
       </c>
     </row>
@@ -598,7 +601,7 @@
       <c r="A21" s="1">
         <v>1987</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>3.35</v>
       </c>
     </row>
@@ -606,7 +609,7 @@
       <c r="A22" s="1">
         <v>1988</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <v>3.35</v>
       </c>
     </row>
@@ -614,7 +617,7 @@
       <c r="A23" s="1">
         <v>1989</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>3.35</v>
       </c>
     </row>
@@ -622,7 +625,7 @@
       <c r="A24" s="1">
         <v>1990</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>3.8</v>
       </c>
     </row>
@@ -630,7 +633,7 @@
       <c r="A25" s="1">
         <v>1991</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="5">
         <v>4.25</v>
       </c>
     </row>
@@ -638,7 +641,7 @@
       <c r="A26" s="1">
         <v>1992</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="5">
         <v>4.25</v>
       </c>
     </row>
@@ -646,7 +649,7 @@
       <c r="A27" s="1">
         <v>1993</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="5">
         <v>4.25</v>
       </c>
     </row>
@@ -654,7 +657,7 @@
       <c r="A28" s="1">
         <v>1994</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="5">
         <v>4.25</v>
       </c>
     </row>
@@ -662,7 +665,7 @@
       <c r="A29" s="1">
         <v>1995</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="5">
         <v>4.25</v>
       </c>
     </row>
@@ -670,7 +673,7 @@
       <c r="A30" s="1">
         <v>1996</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="5">
         <v>4.75</v>
       </c>
     </row>
@@ -678,7 +681,7 @@
       <c r="A31" s="1">
         <v>1997</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="5">
         <v>5.15</v>
       </c>
     </row>
@@ -686,7 +689,7 @@
       <c r="A32" s="1">
         <v>1998</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="5">
         <v>5.15</v>
       </c>
     </row>
@@ -694,7 +697,7 @@
       <c r="A33" s="1">
         <v>1999</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="5">
         <v>5.15</v>
       </c>
     </row>
@@ -702,7 +705,7 @@
       <c r="A34" s="1">
         <v>2000</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="5">
         <v>5.15</v>
       </c>
     </row>
@@ -710,7 +713,7 @@
       <c r="A35" s="1">
         <v>2001</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="5">
         <v>5.15</v>
       </c>
     </row>
@@ -718,7 +721,7 @@
       <c r="A36" s="1">
         <v>2002</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="5">
         <v>5.15</v>
       </c>
     </row>
@@ -726,7 +729,7 @@
       <c r="A37" s="1">
         <v>2003</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="5">
         <v>5.15</v>
       </c>
     </row>
@@ -734,7 +737,7 @@
       <c r="A38" s="1">
         <v>2004</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="5">
         <v>5.15</v>
       </c>
     </row>
@@ -742,7 +745,7 @@
       <c r="A39" s="1">
         <v>2005</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="5">
         <v>5.15</v>
       </c>
     </row>
@@ -750,7 +753,7 @@
       <c r="A40" s="1">
         <v>2006</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="5">
         <v>5.15</v>
       </c>
     </row>
@@ -758,7 +761,7 @@
       <c r="A41" s="1">
         <v>2007</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="5">
         <v>5.85</v>
       </c>
     </row>
@@ -766,7 +769,7 @@
       <c r="A42" s="1">
         <v>2008</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="5">
         <v>6.55</v>
       </c>
     </row>
@@ -774,7 +777,7 @@
       <c r="A43" s="1">
         <v>2009</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="5">
         <v>7.25</v>
       </c>
     </row>
@@ -782,7 +785,7 @@
       <c r="A44" s="1">
         <v>2010</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="5">
         <v>7.25</v>
       </c>
     </row>
@@ -790,7 +793,7 @@
       <c r="A45" s="1">
         <v>2011</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="5">
         <v>7.25</v>
       </c>
     </row>
@@ -798,7 +801,7 @@
       <c r="A46" s="1">
         <v>2012</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="5">
         <v>7.25</v>
       </c>
     </row>
@@ -806,7 +809,7 @@
       <c r="A47" s="1">
         <v>2013</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="5">
         <v>7.25</v>
       </c>
     </row>
@@ -814,7 +817,7 @@
       <c r="A48" s="1">
         <v>2014</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="5">
         <v>7.25</v>
       </c>
     </row>
@@ -822,7 +825,7 @@
       <c r="A49" s="1">
         <v>2015</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="5">
         <v>7.25</v>
       </c>
     </row>
@@ -830,7 +833,7 @@
       <c r="A50" s="1">
         <v>2016</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="5">
         <v>7.25</v>
       </c>
     </row>
@@ -838,7 +841,7 @@
       <c r="A51" s="1">
         <v>2017</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="5">
         <v>7.25</v>
       </c>
     </row>
@@ -846,7 +849,7 @@
       <c r="A52" s="1">
         <v>2018</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="5">
         <v>7.25</v>
       </c>
     </row>
@@ -854,7 +857,7 @@
       <c r="A53" s="1">
         <v>2019</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="5">
         <v>7.25</v>
       </c>
     </row>
